--- a/Modulo5/src/out/info_estados/Montana.xlsx
+++ b/Modulo5/src/out/info_estados/Montana.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="82">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>M</t>
@@ -689,14 +695,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="M2">
         <v>30001</v>
@@ -733,14 +739,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="M3">
         <v>30001</v>
@@ -777,14 +783,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1627</v>
       </c>
       <c r="M4">
         <v>30001</v>
@@ -821,14 +827,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="M5">
         <v>30001</v>
@@ -865,14 +871,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="M6">
         <v>30001</v>
@@ -909,14 +915,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="M7">
         <v>30003</v>
@@ -953,14 +959,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>513</v>
       </c>
       <c r="M8">
         <v>30003</v>
@@ -997,14 +1003,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>1088</v>
       </c>
       <c r="M9">
         <v>30003</v>
@@ -1041,14 +1047,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M10">
         <v>30003</v>
@@ -1085,14 +1091,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="M11">
         <v>30003</v>
@@ -1129,14 +1135,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="M12">
         <v>30005</v>
@@ -1173,14 +1179,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="M13">
         <v>30005</v>
@@ -1217,14 +1223,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>466</v>
       </c>
       <c r="M14">
         <v>30005</v>
@@ -1261,14 +1267,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>80</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M15">
         <v>30005</v>
@@ -1305,14 +1311,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <v>30005</v>
@@ -1349,14 +1355,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M17">
         <v>30007</v>
@@ -1393,14 +1399,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="M18">
         <v>30007</v>
@@ -1437,14 +1443,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="M19">
         <v>30007</v>
@@ -1481,14 +1487,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M20">
         <v>30007</v>
@@ -1525,14 +1531,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>80</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="M21">
         <v>30007</v>
@@ -1569,14 +1575,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>685</v>
       </c>
       <c r="M22">
         <v>30009</v>
@@ -1613,14 +1619,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>615</v>
       </c>
       <c r="M23">
         <v>30009</v>
@@ -1657,14 +1663,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>80</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>1508</v>
       </c>
       <c r="M24">
         <v>30009</v>
@@ -1701,14 +1707,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="M25">
         <v>30009</v>
@@ -1745,14 +1751,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>80</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M26">
         <v>30009</v>
@@ -1789,14 +1795,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M27">
         <v>30011</v>
@@ -1833,14 +1839,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M28">
         <v>30011</v>
@@ -1877,14 +1883,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="M29">
         <v>30011</v>
@@ -1921,14 +1927,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M30">
         <v>30011</v>
@@ -1965,14 +1971,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>80</v>
       </c>
       <c r="K31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M31">
         <v>30011</v>
@@ -2009,14 +2015,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3682</v>
       </c>
       <c r="M32">
         <v>30013</v>
@@ -2053,14 +2059,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>4834</v>
       </c>
       <c r="M33">
         <v>30013</v>
@@ -2097,14 +2103,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>80</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>8130</v>
       </c>
       <c r="M34">
         <v>30013</v>
@@ -2141,14 +2147,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>80</v>
       </c>
       <c r="K35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>790</v>
       </c>
       <c r="M35">
         <v>30013</v>
@@ -2185,14 +2191,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>80</v>
       </c>
       <c r="K36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>831</v>
       </c>
       <c r="M36">
         <v>30013</v>
@@ -2229,14 +2235,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="M37">
         <v>30015</v>
@@ -2273,14 +2279,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>79</v>
       </c>
       <c r="K38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>277</v>
       </c>
       <c r="M38">
         <v>30015</v>
@@ -2317,14 +2323,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>866</v>
       </c>
       <c r="M39">
         <v>30015</v>
@@ -2361,14 +2367,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="M40">
         <v>30015</v>
@@ -2405,14 +2411,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M41">
         <v>30015</v>
@@ -2449,14 +2455,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>79</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>383</v>
       </c>
       <c r="M42">
         <v>30017</v>
@@ -2493,14 +2499,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>79</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="M43">
         <v>30017</v>
@@ -2537,14 +2543,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>1364</v>
       </c>
       <c r="M44">
         <v>30017</v>
@@ -2581,14 +2587,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="M45">
         <v>30017</v>
@@ -2625,14 +2631,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M46">
         <v>30017</v>
@@ -2669,14 +2675,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>79</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M47">
         <v>30019</v>
@@ -2713,14 +2719,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>79</v>
       </c>
       <c r="K48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M48">
         <v>30019</v>
@@ -2757,14 +2763,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>80</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="M49">
         <v>30019</v>
@@ -2801,14 +2807,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M50">
         <v>30019</v>
@@ -2845,14 +2851,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>80</v>
       </c>
       <c r="K51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M51">
         <v>30019</v>
@@ -2889,14 +2895,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>79</v>
       </c>
       <c r="K52" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M52">
         <v>30021</v>
@@ -2933,14 +2939,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>79</v>
       </c>
       <c r="K53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="M53">
         <v>30021</v>
@@ -2977,14 +2983,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>80</v>
       </c>
       <c r="K54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>1686</v>
       </c>
       <c r="M54">
         <v>30021</v>
@@ -3021,14 +3027,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>80</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="M55">
         <v>30021</v>
@@ -3065,14 +3071,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>80</v>
       </c>
       <c r="K56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="M56">
         <v>30021</v>
@@ -3109,14 +3115,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>79</v>
       </c>
       <c r="K57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>786</v>
       </c>
       <c r="M57">
         <v>30023</v>
@@ -3153,14 +3159,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>79</v>
       </c>
       <c r="K58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>987</v>
       </c>
       <c r="M58">
         <v>30023</v>
@@ -3197,14 +3203,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>738</v>
       </c>
       <c r="M59">
         <v>30023</v>
@@ -3241,14 +3247,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>80</v>
       </c>
       <c r="K60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M60">
         <v>30023</v>
@@ -3285,14 +3291,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>80</v>
       </c>
       <c r="K61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M61">
         <v>30023</v>
@@ -3329,14 +3335,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>79</v>
       </c>
       <c r="K62" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M62">
         <v>30025</v>
@@ -3373,14 +3379,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>79</v>
       </c>
       <c r="K63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M63">
         <v>30025</v>
@@ -3417,14 +3423,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>735</v>
       </c>
       <c r="M64">
         <v>30025</v>
@@ -3461,14 +3467,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>80</v>
       </c>
       <c r="K65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M65">
         <v>30025</v>
@@ -3505,14 +3511,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="M66">
         <v>30025</v>
@@ -3549,14 +3555,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>79</v>
       </c>
       <c r="K67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="M67">
         <v>30027</v>
@@ -3593,14 +3599,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>79</v>
       </c>
       <c r="K68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>416</v>
       </c>
       <c r="M68">
         <v>30027</v>
@@ -3637,14 +3643,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>80</v>
       </c>
       <c r="K69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>1976</v>
       </c>
       <c r="M69">
         <v>30027</v>
@@ -3681,14 +3687,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>80</v>
       </c>
       <c r="K70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="M70">
         <v>30027</v>
@@ -3725,14 +3731,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>80</v>
       </c>
       <c r="K71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M71">
         <v>30027</v>
@@ -3769,14 +3775,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>79</v>
       </c>
       <c r="K72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3990</v>
       </c>
       <c r="M72">
         <v>30029</v>
@@ -3813,14 +3819,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>79</v>
       </c>
       <c r="K73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3022</v>
       </c>
       <c r="M73">
         <v>30029</v>
@@ -3857,14 +3863,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>80</v>
       </c>
       <c r="K74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>10643</v>
       </c>
       <c r="M74">
         <v>30029</v>
@@ -3901,14 +3907,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>80</v>
       </c>
       <c r="K75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>978</v>
       </c>
       <c r="M75">
         <v>30029</v>
@@ -3945,14 +3951,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>80</v>
       </c>
       <c r="K76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1084</v>
       </c>
       <c r="M76">
         <v>30029</v>
@@ -3989,14 +3995,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>79</v>
       </c>
       <c r="K77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>8278</v>
       </c>
       <c r="M77">
         <v>30031</v>
@@ -4033,14 +4039,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>79</v>
       </c>
       <c r="K78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>5952</v>
       </c>
       <c r="M78">
         <v>30031</v>
@@ -4077,14 +4083,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>80</v>
       </c>
       <c r="K79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>8314</v>
       </c>
       <c r="M79">
         <v>30031</v>
@@ -4121,14 +4127,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>80</v>
       </c>
       <c r="K80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>1127</v>
       </c>
       <c r="M80">
         <v>30031</v>
@@ -4165,14 +4171,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>1534</v>
       </c>
       <c r="M81">
         <v>30031</v>
@@ -4209,14 +4215,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>79</v>
       </c>
       <c r="K82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M82">
         <v>30033</v>
@@ -4253,14 +4259,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>79</v>
       </c>
       <c r="K83" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M83">
         <v>30033</v>
@@ -4297,14 +4303,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>80</v>
       </c>
       <c r="K84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="M84">
         <v>30033</v>
@@ -4341,14 +4347,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>80</v>
       </c>
       <c r="K85" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M85">
         <v>30033</v>
@@ -4385,14 +4391,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>80</v>
       </c>
       <c r="K86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M86">
         <v>30033</v>
@@ -4429,14 +4435,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>79</v>
       </c>
       <c r="K87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>1075</v>
       </c>
       <c r="M87">
         <v>30035</v>
@@ -4473,14 +4479,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>79</v>
       </c>
       <c r="K88" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>929</v>
       </c>
       <c r="M88">
         <v>30035</v>
@@ -4517,14 +4523,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>80</v>
       </c>
       <c r="K89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>428</v>
       </c>
       <c r="M89">
         <v>30035</v>
@@ -4561,14 +4567,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>80</v>
       </c>
       <c r="K90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M90">
         <v>30035</v>
@@ -4605,14 +4611,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>80</v>
       </c>
       <c r="K91" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M91">
         <v>30035</v>
@@ -4649,14 +4655,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>79</v>
       </c>
       <c r="K92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M92">
         <v>30037</v>
@@ -4693,14 +4699,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>79</v>
       </c>
       <c r="K93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M93">
         <v>30037</v>
@@ -4737,14 +4743,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>80</v>
       </c>
       <c r="K94" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="M94">
         <v>30037</v>
@@ -4781,14 +4787,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>80</v>
       </c>
       <c r="K95" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M95">
         <v>30037</v>
@@ -4825,14 +4831,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>80</v>
       </c>
       <c r="K96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M96">
         <v>30037</v>
@@ -4869,14 +4875,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>79</v>
       </c>
       <c r="K97" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="M97">
         <v>30039</v>
@@ -4913,14 +4919,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>79</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="M98">
         <v>30039</v>
@@ -4957,14 +4963,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>80</v>
       </c>
       <c r="K99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>488</v>
       </c>
       <c r="M99">
         <v>30039</v>
@@ -5001,14 +5007,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>80</v>
       </c>
       <c r="K100" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M100">
         <v>30039</v>
@@ -5045,14 +5051,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>80</v>
       </c>
       <c r="K101" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M101">
         <v>30039</v>
@@ -5089,14 +5095,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>79</v>
       </c>
       <c r="K102" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>874</v>
       </c>
       <c r="M102">
         <v>30041</v>
@@ -5133,14 +5139,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>79</v>
       </c>
       <c r="K103" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>868</v>
       </c>
       <c r="M103">
         <v>30041</v>
@@ -5177,14 +5183,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>80</v>
       </c>
       <c r="K104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>1343</v>
       </c>
       <c r="M104">
         <v>30041</v>
@@ -5221,14 +5227,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>80</v>
       </c>
       <c r="K105" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="M105">
         <v>30041</v>
@@ -5265,14 +5271,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>80</v>
       </c>
       <c r="K106" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="M106">
         <v>30041</v>
@@ -5309,14 +5315,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>79</v>
       </c>
       <c r="K107" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>788</v>
       </c>
       <c r="M107">
         <v>30043</v>
@@ -5353,14 +5359,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>79</v>
       </c>
       <c r="K108" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>717</v>
       </c>
       <c r="M108">
         <v>30043</v>
@@ -5397,14 +5403,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>80</v>
       </c>
       <c r="K109" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>1649</v>
       </c>
       <c r="M109">
         <v>30043</v>
@@ -5441,14 +5447,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>80</v>
       </c>
       <c r="K110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="M110">
         <v>30043</v>
@@ -5485,14 +5491,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>80</v>
       </c>
       <c r="K111" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="M111">
         <v>30043</v>
@@ -5529,14 +5535,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>79</v>
       </c>
       <c r="K112" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M112">
         <v>30045</v>
@@ -5573,14 +5579,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>79</v>
       </c>
       <c r="K113" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="M113">
         <v>30045</v>
@@ -5617,14 +5623,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>80</v>
       </c>
       <c r="K114" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>422</v>
       </c>
       <c r="M114">
         <v>30045</v>
@@ -5661,14 +5667,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>80</v>
       </c>
       <c r="K115" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="M115">
         <v>30045</v>
@@ -5705,14 +5711,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>80</v>
       </c>
       <c r="K116" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="M116">
         <v>30045</v>
@@ -5749,14 +5755,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>79</v>
       </c>
       <c r="K117" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>1597</v>
       </c>
       <c r="M117">
         <v>30047</v>
@@ -5793,14 +5799,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>79</v>
       </c>
       <c r="K118" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>1339</v>
       </c>
       <c r="M118">
         <v>30047</v>
@@ -5837,14 +5843,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>80</v>
       </c>
       <c r="K119" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>2928</v>
       </c>
       <c r="M119">
         <v>30047</v>
@@ -5881,14 +5887,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>80</v>
       </c>
       <c r="K120" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="M120">
         <v>30047</v>
@@ -5925,14 +5931,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>80</v>
       </c>
       <c r="K121" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="M121">
         <v>30047</v>
@@ -5969,14 +5975,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>79</v>
       </c>
       <c r="K122" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>5453</v>
       </c>
       <c r="M122">
         <v>30049</v>
@@ -6013,14 +6019,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>79</v>
       </c>
       <c r="K123" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>5363</v>
       </c>
       <c r="M123">
         <v>30049</v>
@@ -6057,14 +6063,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>80</v>
       </c>
       <c r="K124" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>6195</v>
       </c>
       <c r="M124">
         <v>30049</v>
@@ -6101,14 +6107,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>80</v>
       </c>
       <c r="K125" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>687</v>
       </c>
       <c r="M125">
         <v>30049</v>
@@ -6145,14 +6151,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>80</v>
       </c>
       <c r="K126" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>944</v>
       </c>
       <c r="M126">
         <v>30049</v>
@@ -6189,14 +6195,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>79</v>
       </c>
       <c r="K127" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="M127">
         <v>30051</v>
@@ -6233,14 +6239,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>79</v>
       </c>
       <c r="K128" t="s">
+        <v>81</v>
+      </c>
+      <c r="L128">
         <v>79</v>
-      </c>
-      <c r="L128">
-        <v>4</v>
       </c>
       <c r="M128">
         <v>30051</v>
@@ -6277,14 +6283,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>80</v>
       </c>
       <c r="K129" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="M129">
         <v>30051</v>
@@ -6321,14 +6327,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>80</v>
       </c>
       <c r="K130" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M130">
         <v>30051</v>
@@ -6365,14 +6371,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>80</v>
       </c>
       <c r="K131" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M131">
         <v>30051</v>
@@ -6409,14 +6415,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>79</v>
       </c>
       <c r="K132" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>847</v>
       </c>
       <c r="M132">
         <v>30053</v>
@@ -6453,14 +6459,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>79</v>
       </c>
       <c r="K133" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>669</v>
       </c>
       <c r="M133">
         <v>30053</v>
@@ -6497,14 +6503,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>80</v>
       </c>
       <c r="K134" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3074</v>
       </c>
       <c r="M134">
         <v>30053</v>
@@ -6541,14 +6547,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>80</v>
       </c>
       <c r="K135" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M135">
         <v>30053</v>
@@ -6585,14 +6591,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>80</v>
       </c>
       <c r="K136" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="M136">
         <v>30053</v>
@@ -6629,14 +6635,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>79</v>
       </c>
       <c r="K137" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="M137">
         <v>30057</v>
@@ -6673,14 +6679,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>79</v>
       </c>
       <c r="K138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="M138">
         <v>30057</v>
@@ -6717,14 +6723,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>80</v>
       </c>
       <c r="K139" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>1413</v>
       </c>
       <c r="M139">
         <v>30057</v>
@@ -6761,14 +6767,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>80</v>
       </c>
       <c r="K140" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="M140">
         <v>30057</v>
@@ -6805,14 +6811,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>80</v>
       </c>
       <c r="K141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="M141">
         <v>30057</v>
@@ -6849,14 +6855,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>79</v>
       </c>
       <c r="K142" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="M142">
         <v>30055</v>
@@ -6893,14 +6899,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>79</v>
       </c>
       <c r="K143" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M143">
         <v>30055</v>
@@ -6937,14 +6943,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>80</v>
       </c>
       <c r="K144" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>411</v>
       </c>
       <c r="M144">
         <v>30055</v>
@@ -6981,14 +6987,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>80</v>
       </c>
       <c r="K145" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M145">
         <v>30055</v>
@@ -7025,14 +7031,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>80</v>
       </c>
       <c r="K146" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M146">
         <v>30055</v>
@@ -7069,14 +7075,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>79</v>
       </c>
       <c r="K147" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M147">
         <v>30059</v>
@@ -7113,14 +7119,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>79</v>
       </c>
       <c r="K148" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="M148">
         <v>30059</v>
@@ -7157,14 +7163,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>80</v>
       </c>
       <c r="K149" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="M149">
         <v>30059</v>
@@ -7201,14 +7207,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>80</v>
       </c>
       <c r="K150" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M150">
         <v>30059</v>
@@ -7245,14 +7251,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>80</v>
       </c>
       <c r="K151" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M151">
         <v>30059</v>
@@ -7289,14 +7295,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>79</v>
       </c>
       <c r="K152" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M152">
         <v>30061</v>
@@ -7333,14 +7339,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>79</v>
       </c>
       <c r="K153" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="M153">
         <v>30061</v>
@@ -7377,14 +7383,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>80</v>
       </c>
       <c r="K154" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="M154">
         <v>30061</v>
@@ -7421,14 +7427,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>80</v>
       </c>
       <c r="K155" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M155">
         <v>30061</v>
@@ -7465,14 +7471,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>80</v>
       </c>
       <c r="K156" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="M156">
         <v>30061</v>
@@ -7509,14 +7515,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>79</v>
       </c>
       <c r="K157" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>13272</v>
       </c>
       <c r="M157">
         <v>30063</v>
@@ -7553,14 +7559,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>79</v>
       </c>
       <c r="K158" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>8116</v>
       </c>
       <c r="M158">
         <v>30063</v>
@@ -7597,14 +7603,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>80</v>
       </c>
       <c r="K159" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>7624</v>
       </c>
       <c r="M159">
         <v>30063</v>
@@ -7641,14 +7647,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>80</v>
       </c>
       <c r="K160" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>716</v>
       </c>
       <c r="M160">
         <v>30063</v>
@@ -7685,14 +7691,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>80</v>
       </c>
       <c r="K161" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>1027</v>
       </c>
       <c r="M161">
         <v>30063</v>
@@ -7729,14 +7735,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>79</v>
       </c>
       <c r="K162" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="M162">
         <v>30065</v>
@@ -7773,14 +7779,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>79</v>
       </c>
       <c r="K163" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="M163">
         <v>30065</v>
@@ -7817,14 +7823,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>80</v>
       </c>
       <c r="K164" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>1033</v>
       </c>
       <c r="M164">
         <v>30065</v>
@@ -7861,14 +7867,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>80</v>
       </c>
       <c r="K165" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M165">
         <v>30065</v>
@@ -7905,14 +7911,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>80</v>
       </c>
       <c r="K166" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M166">
         <v>30065</v>
@@ -7949,14 +7955,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>79</v>
       </c>
       <c r="K167" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>1481</v>
       </c>
       <c r="M167">
         <v>30067</v>
@@ -7993,14 +7999,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>79</v>
       </c>
       <c r="K168" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>911</v>
       </c>
       <c r="M168">
         <v>30067</v>
@@ -8037,14 +8043,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>80</v>
       </c>
       <c r="K169" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>1902</v>
       </c>
       <c r="M169">
         <v>30067</v>
@@ -8081,14 +8087,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>80</v>
       </c>
       <c r="K170" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="M170">
         <v>30067</v>
@@ -8125,14 +8131,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>80</v>
       </c>
       <c r="K171" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>233</v>
       </c>
       <c r="M171">
         <v>30067</v>
@@ -8169,14 +8175,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>79</v>
       </c>
       <c r="K172" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M172">
         <v>30069</v>
@@ -8213,14 +8219,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>79</v>
       </c>
       <c r="K173" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M173">
         <v>30069</v>
@@ -8257,14 +8263,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>80</v>
       </c>
       <c r="K174" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="M174">
         <v>30069</v>
@@ -8301,14 +8307,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>80</v>
       </c>
       <c r="K175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M175">
         <v>30069</v>
@@ -8345,14 +8351,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>80</v>
       </c>
       <c r="K176" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M176">
         <v>30069</v>
@@ -8389,14 +8395,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>79</v>
       </c>
       <c r="K177" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="M177">
         <v>30071</v>
@@ -8433,14 +8439,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>79</v>
       </c>
       <c r="K178" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M178">
         <v>30071</v>
@@ -8477,14 +8483,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>80</v>
       </c>
       <c r="K179" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>1098</v>
       </c>
       <c r="M179">
         <v>30071</v>
@@ -8521,14 +8527,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>80</v>
       </c>
       <c r="K180" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M180">
         <v>30071</v>
@@ -8565,14 +8571,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>80</v>
       </c>
       <c r="K181" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M181">
         <v>30071</v>
@@ -8609,14 +8615,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>79</v>
       </c>
       <c r="K182" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="M182">
         <v>30073</v>
@@ -8653,14 +8659,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>79</v>
       </c>
       <c r="K183" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="M183">
         <v>30073</v>
@@ -8697,14 +8703,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>80</v>
       </c>
       <c r="K184" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>931</v>
       </c>
       <c r="M184">
         <v>30073</v>
@@ -8741,14 +8747,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>80</v>
       </c>
       <c r="K185" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="M185">
         <v>30073</v>
@@ -8785,14 +8791,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>80</v>
       </c>
       <c r="K186" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="M186">
         <v>30073</v>
@@ -8829,14 +8835,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>79</v>
       </c>
       <c r="K187" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M187">
         <v>30075</v>
@@ -8873,14 +8879,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>79</v>
       </c>
       <c r="K188" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M188">
         <v>30075</v>
@@ -8917,14 +8923,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>80</v>
       </c>
       <c r="K189" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>517</v>
       </c>
       <c r="M189">
         <v>30075</v>
@@ -8961,14 +8967,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>80</v>
       </c>
       <c r="K190" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M190">
         <v>30075</v>
@@ -9005,14 +9011,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>80</v>
       </c>
       <c r="K191" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M191">
         <v>30075</v>
@@ -9049,14 +9055,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>79</v>
       </c>
       <c r="K192" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M192">
         <v>30077</v>
@@ -9093,14 +9099,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>79</v>
       </c>
       <c r="K193" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M193">
         <v>30077</v>
@@ -9137,14 +9143,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>80</v>
       </c>
       <c r="K194" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>819</v>
       </c>
       <c r="M194">
         <v>30077</v>
@@ -9181,14 +9187,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>80</v>
       </c>
       <c r="K195" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="M195">
         <v>30077</v>
@@ -9225,14 +9231,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>80</v>
       </c>
       <c r="K196" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="M196">
         <v>30077</v>
@@ -9269,14 +9275,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>79</v>
       </c>
       <c r="K197" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M197">
         <v>30079</v>
@@ -9313,14 +9319,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>79</v>
       </c>
       <c r="K198" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M198">
         <v>30079</v>
@@ -9357,14 +9363,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>80</v>
       </c>
       <c r="K199" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="M199">
         <v>30079</v>
@@ -9401,14 +9407,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>80</v>
       </c>
       <c r="K200" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M200">
         <v>30079</v>
@@ -9445,14 +9451,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>80</v>
       </c>
       <c r="K201" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M201">
         <v>30079</v>
@@ -9489,14 +9495,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>79</v>
       </c>
       <c r="K202" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>2134</v>
       </c>
       <c r="M202">
         <v>30081</v>
@@ -9533,14 +9539,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>79</v>
       </c>
       <c r="K203" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>1856</v>
       </c>
       <c r="M203">
         <v>30081</v>
@@ -9577,14 +9583,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>80</v>
       </c>
       <c r="K204" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>6282</v>
       </c>
       <c r="M204">
         <v>30081</v>
@@ -9621,14 +9627,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>80</v>
       </c>
       <c r="K205" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>637</v>
       </c>
       <c r="M205">
         <v>30081</v>
@@ -9665,14 +9671,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>80</v>
       </c>
       <c r="K206" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>1126</v>
       </c>
       <c r="M206">
         <v>30081</v>
@@ -9709,14 +9715,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>79</v>
       </c>
       <c r="K207" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="M207">
         <v>30083</v>
@@ -9753,14 +9759,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>79</v>
       </c>
       <c r="K208" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="M208">
         <v>30083</v>
@@ -9797,14 +9803,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>80</v>
       </c>
       <c r="K209" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>1436</v>
       </c>
       <c r="M209">
         <v>30083</v>
@@ -9841,14 +9847,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>80</v>
       </c>
       <c r="K210" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="M210">
         <v>30083</v>
@@ -9885,14 +9891,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>80</v>
       </c>
       <c r="K211" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="M211">
         <v>30083</v>
@@ -9929,14 +9935,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>79</v>
       </c>
       <c r="K212" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="M212">
         <v>30085</v>
@@ -9973,14 +9979,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>79</v>
       </c>
       <c r="K213" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="M213">
         <v>30085</v>
@@ -10017,14 +10023,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>80</v>
       </c>
       <c r="K214" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M214">
         <v>30085</v>
@@ -10061,14 +10067,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>80</v>
       </c>
       <c r="K215" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M215">
         <v>30085</v>
@@ -10105,14 +10111,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>80</v>
       </c>
       <c r="K216" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="M216">
         <v>30085</v>
@@ -10149,14 +10155,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>79</v>
       </c>
       <c r="K217" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>361</v>
       </c>
       <c r="M217">
         <v>30087</v>
@@ -10193,14 +10199,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>79</v>
       </c>
       <c r="K218" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="M218">
         <v>30087</v>
@@ -10237,14 +10243,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>80</v>
       </c>
       <c r="K219" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>960</v>
       </c>
       <c r="M219">
         <v>30087</v>
@@ -10281,14 +10287,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>80</v>
       </c>
       <c r="K220" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="M220">
         <v>30087</v>
@@ -10325,14 +10331,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>80</v>
       </c>
       <c r="K221" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M221">
         <v>30087</v>
@@ -10369,14 +10375,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>79</v>
       </c>
       <c r="K222" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>589</v>
       </c>
       <c r="M222">
         <v>30089</v>
@@ -10413,14 +10419,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>79</v>
       </c>
       <c r="K223" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="M223">
         <v>30089</v>
@@ -10457,14 +10463,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>80</v>
       </c>
       <c r="K224" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>1993</v>
       </c>
       <c r="M224">
         <v>30089</v>
@@ -10501,14 +10507,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>80</v>
       </c>
       <c r="K225" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="M225">
         <v>30089</v>
@@ -10545,14 +10551,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>80</v>
       </c>
       <c r="K226" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="M226">
         <v>30089</v>
@@ -10589,14 +10595,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>79</v>
       </c>
       <c r="K227" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="M227">
         <v>30091</v>
@@ -10633,14 +10639,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>79</v>
       </c>
       <c r="K228" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="M228">
         <v>30091</v>
@@ -10677,14 +10683,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>80</v>
       </c>
       <c r="K229" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="M229">
         <v>30091</v>
@@ -10721,14 +10727,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>80</v>
       </c>
       <c r="K230" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M230">
         <v>30091</v>
@@ -10765,14 +10771,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>80</v>
       </c>
       <c r="K231" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M231">
         <v>30091</v>
@@ -10809,14 +10815,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>79</v>
       </c>
       <c r="K232" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3477</v>
       </c>
       <c r="M232">
         <v>30093</v>
@@ -10853,14 +10859,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>79</v>
       </c>
       <c r="K233" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>4090</v>
       </c>
       <c r="M233">
         <v>30093</v>
@@ -10897,14 +10903,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>80</v>
       </c>
       <c r="K234" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>2649</v>
       </c>
       <c r="M234">
         <v>30093</v>
@@ -10941,14 +10947,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>80</v>
       </c>
       <c r="K235" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="M235">
         <v>30093</v>
@@ -10985,14 +10991,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>80</v>
       </c>
       <c r="K236" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="M236">
         <v>30093</v>
@@ -11029,14 +11035,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>79</v>
       </c>
       <c r="K237" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="M237">
         <v>30095</v>
@@ -11073,14 +11079,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>79</v>
       </c>
       <c r="K238" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="M238">
         <v>30095</v>
@@ -11117,14 +11123,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>80</v>
       </c>
       <c r="K239" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>1659</v>
       </c>
       <c r="M239">
         <v>30095</v>
@@ -11161,14 +11167,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>80</v>
       </c>
       <c r="K240" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="M240">
         <v>30095</v>
@@ -11205,14 +11211,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>80</v>
       </c>
       <c r="K241" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="M241">
         <v>30095</v>
@@ -11249,14 +11255,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>79</v>
       </c>
       <c r="K242" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="M242">
         <v>30097</v>
@@ -11293,14 +11299,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>79</v>
       </c>
       <c r="K243" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M243">
         <v>30097</v>
@@ -11337,14 +11343,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>80</v>
       </c>
       <c r="K244" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>708</v>
       </c>
       <c r="M244">
         <v>30097</v>
@@ -11381,14 +11387,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>80</v>
       </c>
       <c r="K245" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M245">
         <v>30097</v>
@@ -11425,14 +11431,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>80</v>
       </c>
       <c r="K246" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="M246">
         <v>30097</v>
@@ -11469,14 +11475,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>79</v>
       </c>
       <c r="K247" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="M247">
         <v>30099</v>
@@ -11513,14 +11519,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>79</v>
       </c>
       <c r="K248" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>375</v>
       </c>
       <c r="M248">
         <v>30099</v>
@@ -11557,14 +11563,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>80</v>
       </c>
       <c r="K249" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>883</v>
       </c>
       <c r="M249">
         <v>30099</v>
@@ -11601,14 +11607,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>80</v>
       </c>
       <c r="K250" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M250">
         <v>30099</v>
@@ -11645,14 +11651,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>80</v>
       </c>
       <c r="K251" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="M251">
         <v>30099</v>
@@ -11689,14 +11695,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>79</v>
       </c>
       <c r="K252" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="M252">
         <v>30101</v>
@@ -11733,14 +11739,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>79</v>
       </c>
       <c r="K253" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="M253">
         <v>30101</v>
@@ -11777,14 +11783,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>80</v>
       </c>
       <c r="K254" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>864</v>
       </c>
       <c r="M254">
         <v>30101</v>
@@ -11821,14 +11827,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>80</v>
       </c>
       <c r="K255" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M255">
         <v>30101</v>
@@ -11865,14 +11871,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>80</v>
       </c>
       <c r="K256" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M256">
         <v>30101</v>
@@ -11909,14 +11915,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>79</v>
       </c>
       <c r="K257" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M257">
         <v>30103</v>
@@ -11953,14 +11959,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>79</v>
       </c>
       <c r="K258" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M258">
         <v>30103</v>
@@ -11997,14 +12003,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>80</v>
       </c>
       <c r="K259" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="M259">
         <v>30103</v>
@@ -12041,14 +12047,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>80</v>
       </c>
       <c r="K260" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M260">
         <v>30103</v>
@@ -12085,14 +12091,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>80</v>
       </c>
       <c r="K261" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M261">
         <v>30103</v>
@@ -12129,14 +12135,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>79</v>
       </c>
       <c r="K262" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="M262">
         <v>30105</v>
@@ -12173,14 +12179,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>79</v>
       </c>
       <c r="K263" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>345</v>
       </c>
       <c r="M263">
         <v>30105</v>
@@ -12217,14 +12223,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>80</v>
       </c>
       <c r="K264" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>1251</v>
       </c>
       <c r="M264">
         <v>30105</v>
@@ -12261,14 +12267,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>80</v>
       </c>
       <c r="K265" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M265">
         <v>30105</v>
@@ -12305,14 +12311,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>80</v>
       </c>
       <c r="K266" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M266">
         <v>30105</v>
@@ -12349,14 +12355,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>79</v>
       </c>
       <c r="K267" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M267">
         <v>30107</v>
@@ -12393,14 +12399,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>79</v>
       </c>
       <c r="K268" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M268">
         <v>30107</v>
@@ -12437,14 +12443,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>80</v>
       </c>
       <c r="K269" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="M269">
         <v>30107</v>
@@ -12481,14 +12487,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>80</v>
       </c>
       <c r="K270" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M270">
         <v>30107</v>
@@ -12525,14 +12531,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>80</v>
       </c>
       <c r="K271" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M271">
         <v>30107</v>
@@ -12569,14 +12575,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>79</v>
       </c>
       <c r="K272" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M272">
         <v>30109</v>
@@ -12613,14 +12619,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>79</v>
       </c>
       <c r="K273" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M273">
         <v>30109</v>
@@ -12657,14 +12663,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>80</v>
       </c>
       <c r="K274" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="M274">
         <v>30109</v>
@@ -12701,14 +12707,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>80</v>
       </c>
       <c r="K275" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M275">
         <v>30109</v>
@@ -12745,14 +12751,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>80</v>
       </c>
       <c r="K276" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M276">
         <v>30109</v>
@@ -12789,14 +12795,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>79</v>
       </c>
       <c r="K277" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>6976</v>
       </c>
       <c r="M277">
         <v>30111</v>
@@ -12833,14 +12839,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>79</v>
       </c>
       <c r="K278" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>7845</v>
       </c>
       <c r="M278">
         <v>30111</v>
@@ -12877,14 +12883,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>80</v>
       </c>
       <c r="K279" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>17926</v>
       </c>
       <c r="M279">
         <v>30111</v>
@@ -12921,14 +12927,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>80</v>
       </c>
       <c r="K280" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>1935</v>
       </c>
       <c r="M280">
         <v>30111</v>
@@ -12965,14 +12971,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>80</v>
       </c>
       <c r="K281" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>2571</v>
       </c>
       <c r="M281">
         <v>30111</v>
